--- a/Testcases_supplier/Customers/Manual testcases/Customer-New customerListing.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-New customerListing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36655091-05D3-4485-8B93-89B21F7AC67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703501C-74F3-4DC7-A936-A83358BF8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>SL. No</t>
   </si>
@@ -169,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>Name &amp; UEN : Company Registration Number(UEN)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enter the UEN and continue ,if it matches the company UEN it will proceed to Details page </t>
   </si>
   <si>
@@ -255,6 +252,12 @@
       </rPr>
       <t>"Requested company succesfully"</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Customers-&gt;Companies-&gt;New customer and AU formate </t>
+  </si>
+  <si>
+    <t>1.Name &amp; UEN : Company Registration Number(UEN)           2.Name &amp; ABN : Company Registration Number(ABN)</t>
   </si>
 </sst>
 </file>
@@ -642,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,14 +742,14 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -766,10 +769,10 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -789,10 +792,10 @@
         <v>14</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -812,10 +815,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -835,10 +838,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -858,10 +861,10 @@
         <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>

--- a/Testcases_supplier/Customers/Manual testcases/Customer-New customerListing.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-New customerListing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D703501C-74F3-4DC7-A936-A83358BF8BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E072C1-8980-436D-97FF-69E137E50FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
